--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.783299999999997</v>
+        <v>-7.599999999999995</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.06470000000001</v>
+        <v>-13.0038</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.720399999999993</v>
+        <v>6.634899999999993</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8185</v>
+        <v>-10.8122</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.1563</v>
+        <v>-13.1999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.777399999999995</v>
+        <v>-8.723100000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.148099999999995</v>
+        <v>6.096099999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.959600000000002</v>
+        <v>8.976800000000003</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.0554</v>
+        <v>-12.38789999999999</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.419600000000002</v>
+        <v>5.425599999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.1215</v>
+        <v>-12.6933</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.14020000000001</v>
+        <v>-11.13780000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.605999999999998</v>
+        <v>-7.722999999999998</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1026,13 +1026,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.379400000000006</v>
+        <v>8.336700000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.540099999999997</v>
+        <v>-8.422299999999996</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3971</v>
+        <v>-13.7296</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.0385</v>
+        <v>-13.3998</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.247399999999994</v>
+        <v>-8.218699999999998</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.080400000000001</v>
+        <v>-8.088100000000004</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.447999999999999</v>
+        <v>-7.504300000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.552099999999998</v>
+        <v>-7.599900000000003</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.37439999999999</v>
+        <v>-12.2693</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.915799999999999</v>
+        <v>-7.942300000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3946</v>
+        <v>-11.3925</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.0284</v>
+        <v>-14.0238</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.1447</v>
+        <v>-8.161199999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.8677</v>
+        <v>-7.808799999999998</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.382399999999993</v>
+        <v>6.458999999999995</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.3854</v>
+        <v>-11.4596</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.4153</v>
+        <v>-12.47350000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.275199999999996</v>
+        <v>-8.299999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.3365</v>
+        <v>4.7408</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.678800000000001</v>
+        <v>9.752899999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-12.7073</v>
+        <v>-12.79060000000001</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.566800000000003</v>
+        <v>5.783000000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.825</v>
+        <v>6.398399999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.29920000000001</v>
+        <v>-13.6103</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.648199999999994</v>
+        <v>-7.811399999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.404599999999999</v>
+        <v>6.5463</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.541799999999998</v>
+        <v>-7.567199999999997</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.3858</v>
+        <v>-13.4714</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
